--- a/grupos/4APM - Estadisticos 2020.xlsx
+++ b/grupos/4APM - Estadisticos 2020.xlsx
@@ -3080,6 +3080,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4156,7 +4157,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4665,6 +4667,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4APM - Estadisticos 2020.xlsx
+++ b/grupos/4APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="133">
   <si>
     <t>Materia</t>
   </si>
@@ -170,21 +170,21 @@
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
-    <t>Medina Tolentino Elio</t>
+    <t>Herrera Serrano Mayra Iliana</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
   </si>
   <si>
     <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -200,12 +200,27 @@
     <t>ALEJO</t>
   </si>
   <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
+    <t>CESPEDES</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
     <t>CHORA</t>
   </si>
   <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
     <t>GARIBAY</t>
   </si>
   <si>
@@ -236,33 +251,57 @@
     <t>ORTIZ</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>REYNOSO</t>
   </si>
   <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
     <t>RICO</t>
   </si>
   <si>
     <t>ROJAS</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>SERRANO</t>
   </si>
   <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>VERA</t>
+  </si>
+  <si>
     <t>ZUNO</t>
   </si>
   <si>
     <t>VASQUEZ</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
     <t>SILVESTRE</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
@@ -275,13 +314,10 @@
     <t>CALPULALPAN</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
     <t>HUESCA</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
+    <t>ANDRADE</t>
   </si>
   <si>
     <t>ALCARAZ</t>
@@ -293,18 +329,36 @@
     <t>HUERTA</t>
   </si>
   <si>
+    <t>LLAVE</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
     <t>RAUL ALEJANDRO</t>
   </si>
   <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
     <t>MOISES URIEL</t>
   </si>
   <si>
+    <t>ERICK MANUEL</t>
+  </si>
+  <si>
+    <t>KARLA FABIOLA</t>
+  </si>
+  <si>
     <t>GABRIEL ALEJANDRO</t>
   </si>
   <si>
+    <t>IRVING YAHIR</t>
+  </si>
+  <si>
+    <t>BRAULIO VADIR</t>
+  </si>
+  <si>
     <t>MARCOS URIEL</t>
   </si>
   <si>
@@ -335,88 +389,34 @@
     <t>IRVING JAIR</t>
   </si>
   <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
     <t>RENZO JHOVANI</t>
   </si>
   <si>
+    <t>MARIA DE JESUS</t>
+  </si>
+  <si>
     <t>NADYA GUADALUPE</t>
   </si>
   <si>
     <t>DANTE GAMALIEL</t>
   </si>
   <si>
+    <t>ANGEL EDUARDO</t>
+  </si>
+  <si>
     <t>ABDIEL ANTONIO</t>
   </si>
   <si>
     <t>DANIELA JAQUELINE</t>
   </si>
   <si>
+    <t>YESUA ISIDRO</t>
+  </si>
+  <si>
     <t>URIEL ALFREDO</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>CESPEDES</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>ERICK MANUEL</t>
-  </si>
-  <si>
-    <t>KARLA FABIOLA</t>
-  </si>
-  <si>
-    <t>IRVING YAHIR</t>
-  </si>
-  <si>
-    <t>BRAULIO VADIR</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>MARIA DE JESUS</t>
-  </si>
-  <si>
-    <t>ANGEL EDUARDO</t>
-  </si>
-  <si>
-    <t>YESUA ISIDRO</t>
   </si>
 </sst>
 </file>
@@ -915,16 +915,16 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -983,16 +983,16 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1039,7 +1039,7 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -1051,7 +1051,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1060,7 +1060,7 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1119,16 +1119,16 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K7">
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1187,16 +1187,16 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1255,16 +1255,16 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1308,10 +1308,10 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1323,7 +1323,7 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -1332,7 +1332,7 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1391,16 +1391,16 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1459,16 +1459,16 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K12">
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1515,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -1527,7 +1527,7 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1536,7 +1536,7 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1583,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -1595,16 +1595,16 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K14">
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1648,10 +1648,10 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -1663,16 +1663,16 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1716,7 +1716,7 @@
         <v>-1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1731,16 +1731,16 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -1799,16 +1799,16 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K17">
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1855,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1867,7 +1867,7 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -1876,7 +1876,7 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1920,10 +1920,10 @@
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -1935,7 +1935,7 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K19">
         <v>-1</v>
@@ -1944,7 +1944,7 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -2003,16 +2003,16 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K20">
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2059,7 +2059,7 @@
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -2080,7 +2080,7 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2139,16 +2139,16 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2195,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -2207,16 +2207,16 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K23">
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2263,7 +2263,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -2275,16 +2275,16 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K24">
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2343,16 +2343,16 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K25">
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2399,7 +2399,7 @@
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -2420,7 +2420,7 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2479,16 +2479,16 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K27">
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2535,7 +2535,7 @@
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -2556,7 +2556,7 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2624,7 +2624,7 @@
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2683,16 +2683,16 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K30">
         <v>-1</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2739,7 +2739,7 @@
         <v>-1</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -2760,7 +2760,7 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2886,30 +2886,30 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>53.57</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2918,30 +2918,30 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="G4">
+        <v>35.71</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>53.57</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.4</v>
-      </c>
-      <c r="I4">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>46.43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
         <v>9</v>
@@ -2973,39 +2973,39 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>67.86</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>32.14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -3014,30 +3014,30 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="G7">
+        <v>21.43</v>
+      </c>
+      <c r="H7">
+        <v>6.6</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>75</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>0</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -3046,25 +3046,25 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>78.56999999999999</v>
+        <v>82.14</v>
       </c>
       <c r="G8">
-        <v>21.43</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>17.86</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3074,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3112,53 +3112,53 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920224</v>
+        <v>19330051920223</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920224</v>
+        <v>19330051920223</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
@@ -3166,39 +3166,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920224</v>
+        <v>19330051920223</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920224</v>
+        <v>19330051920430</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -3206,459 +3206,459 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920224</v>
+        <v>19330051920430</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920227</v>
+        <v>19330051920430</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920231</v>
+        <v>19330051920430</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920231</v>
+        <v>19330051920224</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920231</v>
+        <v>19330051920224</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920231</v>
+        <v>19330051920224</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920232</v>
+        <v>19330051920224</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920232</v>
+        <v>19330051920224</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920233</v>
+        <v>19330051920225</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920233</v>
+        <v>19330051920225</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920233</v>
+        <v>19330051920225</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920234</v>
+        <v>19330051920225</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920234</v>
+        <v>19330051920226</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920234</v>
+        <v>19330051920226</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920429</v>
+        <v>19330051920226</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920235</v>
+        <v>19330051920226</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920236</v>
+        <v>19330051920227</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920236</v>
+        <v>19330051920227</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920236</v>
+        <v>19330051920227</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920236</v>
+        <v>19330051920227</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920236</v>
+        <v>19330051920229</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920237</v>
+        <v>19330051920229</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920228</v>
+        <v>19330051920229</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
@@ -3666,99 +3666,99 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920228</v>
+        <v>19330051920229</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920238</v>
+        <v>19330051920230</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920238</v>
+        <v>19330051920230</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920238</v>
+        <v>19330051920230</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920238</v>
+        <v>19330051920230</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -3766,339 +3766,339 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920238</v>
+        <v>19330051920231</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920404</v>
+        <v>19330051920231</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920239</v>
+        <v>19330051920231</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920241</v>
+        <v>19330051920231</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920241</v>
+        <v>19330051920231</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920241</v>
+        <v>19330051920232</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920241</v>
+        <v>19330051920232</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920241</v>
+        <v>19330051920232</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920243</v>
+        <v>19330051920232</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920243</v>
+        <v>19330051920233</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920243</v>
+        <v>19330051920233</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920243</v>
+        <v>19330051920233</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920244</v>
+        <v>19330051920233</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920244</v>
+        <v>19330051920234</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920425</v>
+        <v>19330051920234</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920425</v>
+        <v>19330051920234</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920425</v>
+        <v>19330051920234</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>52</v>
@@ -4106,41 +4106,1541 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920425</v>
+        <v>19330051920429</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
+        <v>19330051920429</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>19330051920429</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>19330051920429</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>19330051920429</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>19330051920235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>19330051920235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>19330051920235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>19330051920235</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>19330051920236</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>19330051920236</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>19330051920236</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19330051920236</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>19330051920236</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>19330051920237</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>19330051920237</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>19330051920237</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>19330051920237</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19330051920228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>19330051920228</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>19330051920228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>19330051920228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19330051920228</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920238</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920238</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920238</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19330051920238</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>19330051920238</v>
+      </c>
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>19330051420227</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>19330051420227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>19330051420227</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>19330051420227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>19330051920404</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>19330051920404</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>19330051920404</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>19330051920404</v>
+      </c>
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>19330051920240</v>
+      </c>
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>19330051920240</v>
+      </c>
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>19330051920240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>19330051920240</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>19330051920239</v>
+      </c>
+      <c r="B93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>19330051920239</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>19330051920239</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>19330051920239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>19330051920241</v>
+      </c>
+      <c r="B97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>19330051920241</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>19330051920241</v>
+      </c>
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>19330051920241</v>
+      </c>
+      <c r="B100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>19330051920241</v>
+      </c>
+      <c r="B101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" t="s">
+        <v>127</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>19330051920241</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>19330051920242</v>
+      </c>
+      <c r="B103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>19330051920242</v>
+      </c>
+      <c r="B104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>19330051920242</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>19330051920242</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>19330051920243</v>
+      </c>
+      <c r="B107" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>19330051920243</v>
+      </c>
+      <c r="B108" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>19330051920243</v>
+      </c>
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>19330051920243</v>
+      </c>
+      <c r="B110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>19330051920243</v>
+      </c>
+      <c r="B111" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>19330051920243</v>
+      </c>
+      <c r="B112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>19330051920244</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>19330051920244</v>
+      </c>
+      <c r="B114" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" t="s">
+        <v>130</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>19330051920244</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>19330051920244</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>19330051920244</v>
+      </c>
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>19330051920244</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>19330051920245</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>19330051920245</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>19330051920245</v>
+      </c>
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" t="s">
+        <v>131</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>19330051920245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" t="s">
+        <v>131</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
         <v>19330051920425</v>
       </c>
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="B123" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" t="s">
+        <v>132</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>19330051920425</v>
+      </c>
+      <c r="B124" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" t="s">
+        <v>104</v>
+      </c>
+      <c r="D124" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>19330051920425</v>
+      </c>
+      <c r="B125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>19330051920425</v>
+      </c>
+      <c r="B126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" t="s">
+        <v>104</v>
+      </c>
+      <c r="D126" t="s">
+        <v>132</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>19330051920425</v>
+      </c>
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" t="s">
+        <v>132</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>19330051920425</v>
+      </c>
+      <c r="B128" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4183,101 +5683,101 @@
         <v>19330051920224</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920236</v>
+        <v>19330051920238</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920238</v>
+        <v>19330051920241</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920241</v>
+        <v>19330051920425</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920425</v>
+        <v>19330051920231</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920231</v>
+        <v>19330051920236</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4285,115 +5785,115 @@
         <v>19330051920243</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920233</v>
+        <v>19330051920234</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920234</v>
+        <v>19330051920244</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920232</v>
+        <v>19330051920223</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920228</v>
+        <v>19330051920227</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920244</v>
+        <v>19330051920232</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920223</v>
+        <v>19330051920233</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4401,16 +5901,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920227</v>
+        <v>19330051920237</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4418,101 +5918,101 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920429</v>
+        <v>19330051920430</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920235</v>
+        <v>19330051920225</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920237</v>
+        <v>19330051920226</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920404</v>
+        <v>19330051920229</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920239</v>
+        <v>19330051920230</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920430</v>
+        <v>19330051920429</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4520,16 +6020,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920225</v>
+        <v>19330051920235</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4537,16 +6037,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920226</v>
+        <v>19330051920228</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4554,16 +6054,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920229</v>
+        <v>19330051420227</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4571,16 +6071,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920230</v>
+        <v>19330051920404</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4588,16 +6088,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051420227</v>
+        <v>19330051920240</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4605,16 +6105,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920240</v>
+        <v>19330051920239</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4625,13 +6125,13 @@
         <v>19330051920242</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4642,13 +6142,13 @@
         <v>19330051920245</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4661,7 +6161,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4694,328 +6194,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920232</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920232</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920429</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920429</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920235</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920235</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920237</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920404</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920404</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920223</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920430</v>
-      </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920227</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920239</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4APM - Estadisticos 2020.xlsx
+++ b/grupos/4APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="133">
   <si>
     <t>Materia</t>
   </si>
@@ -167,22 +167,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
-    <t>Medina Tolentino Elio</t>
+    <t>Herrera Serrano Mayra Iliana</t>
+  </si>
+  <si>
+    <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
     <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
   </si>
   <si>
     <t>NC</t>
@@ -906,19 +906,19 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>6</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>6</v>
@@ -980,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -1027,13 +1027,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1116,13 +1116,13 @@
         <v>8</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>8</v>
@@ -1184,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1237,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1252,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1320,13 +1320,13 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>-1</v>
@@ -1388,13 +1388,13 @@
         <v>7</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>8</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>7</v>
@@ -1456,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1503,7 +1503,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1592,13 +1592,13 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>8</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>6</v>
@@ -1660,13 +1660,13 @@
         <v>5</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1722,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -1911,13 +1911,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -1932,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
         <v>8</v>
@@ -2000,13 +2000,13 @@
         <v>5</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -2136,13 +2136,13 @@
         <v>7</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
         <v>7</v>
@@ -2204,13 +2204,13 @@
         <v>5</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>7</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L23">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         <v>7</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -2340,13 +2340,13 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -2387,13 +2387,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -2476,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>7</v>
@@ -2591,7 +2591,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2618,7 +2618,7 @@
         <v>-1</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <v>-1</v>
@@ -2680,13 +2680,13 @@
         <v>7</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J30">
         <v>8</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
         <v>8</v>
@@ -2727,13 +2727,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>-1</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2854,30 +2854,27 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>6.5</v>
+        <v>60.71</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2886,30 +2883,27 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>53.57</v>
-      </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7.4</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>46.43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2918,62 +2912,62 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>64.29000000000001</v>
+        <v>53.57</v>
       </c>
       <c r="G4">
-        <v>35.71</v>
+        <v>32.14</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>67.86</v>
+        <v>60.71</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>35.71</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>32.14</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -2982,30 +2976,30 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>17.86</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -3014,19 +3008,19 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>78.56999999999999</v>
+        <v>67.86</v>
       </c>
       <c r="G7">
-        <v>21.43</v>
+        <v>32.14</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3037,7 +3031,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -3049,13 +3043,13 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>82.14</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>17.86</v>
       </c>
       <c r="H8">
         <v>7.3</v>
@@ -3074,7 +3068,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3121,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3141,47 +3135,47 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920223</v>
+        <v>19330051920430</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920223</v>
+        <v>19330051920430</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3198,70 +3192,70 @@
         <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920430</v>
+        <v>19330051920224</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920430</v>
+        <v>19330051920224</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920430</v>
+        <v>19330051920224</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3278,7 +3272,7 @@
         <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -3298,7 +3292,7 @@
         <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -3306,239 +3300,239 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920224</v>
+        <v>19330051920225</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920224</v>
+        <v>19330051920225</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920224</v>
+        <v>19330051920226</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920225</v>
+        <v>19330051920226</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920225</v>
+        <v>19330051920226</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920225</v>
+        <v>19330051920227</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920225</v>
+        <v>19330051920227</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920226</v>
+        <v>19330051920227</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920226</v>
+        <v>19330051920229</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920226</v>
+        <v>19330051920229</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920226</v>
+        <v>19330051920230</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920227</v>
+        <v>19330051920230</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
@@ -3546,319 +3540,319 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920229</v>
+        <v>19330051920231</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920229</v>
+        <v>19330051920231</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920229</v>
+        <v>19330051920232</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920229</v>
+        <v>19330051920232</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920230</v>
+        <v>19330051920233</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920230</v>
+        <v>19330051920233</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920230</v>
+        <v>19330051920234</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920230</v>
+        <v>19330051920234</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920231</v>
+        <v>19330051920234</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920231</v>
+        <v>19330051920234</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920231</v>
+        <v>19330051920429</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920231</v>
+        <v>19330051920429</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920231</v>
+        <v>19330051920429</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>50</v>
@@ -3866,59 +3860,59 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920232</v>
+        <v>19330051920429</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920232</v>
+        <v>19330051920429</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920232</v>
+        <v>19330051920235</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
@@ -3926,119 +3920,119 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920232</v>
+        <v>19330051920235</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920233</v>
+        <v>19330051920235</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920233</v>
+        <v>19330051920235</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920233</v>
+        <v>19330051920236</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920233</v>
+        <v>19330051920236</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920234</v>
+        <v>19330051920236</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -4046,19 +4040,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920234</v>
+        <v>19330051920236</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
@@ -4066,299 +4060,299 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920234</v>
+        <v>19330051920237</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920234</v>
+        <v>19330051920237</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920429</v>
+        <v>19330051920228</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920429</v>
+        <v>19330051920228</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920429</v>
+        <v>19330051920228</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920429</v>
+        <v>19330051920238</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920429</v>
+        <v>19330051920238</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920235</v>
+        <v>19330051920238</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920235</v>
+        <v>19330051920238</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920235</v>
+        <v>19330051920238</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920235</v>
+        <v>19330051920238</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920236</v>
+        <v>19330051420227</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920236</v>
+        <v>19330051420227</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920236</v>
+        <v>19330051920404</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920236</v>
+        <v>19330051920404</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
         <v>50</v>
@@ -4366,239 +4360,239 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920236</v>
+        <v>19330051920240</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920237</v>
+        <v>19330051920240</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920237</v>
+        <v>19330051920239</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920237</v>
+        <v>19330051920239</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920237</v>
+        <v>19330051920239</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920228</v>
+        <v>19330051920241</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920228</v>
+        <v>19330051920241</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920228</v>
+        <v>19330051920241</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920228</v>
+        <v>19330051920241</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920228</v>
+        <v>19330051920241</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920238</v>
+        <v>19330051920241</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920238</v>
+        <v>19330051920242</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>49</v>
@@ -4606,139 +4600,139 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920238</v>
+        <v>19330051920242</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920238</v>
+        <v>19330051920243</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920238</v>
+        <v>19330051920243</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920238</v>
+        <v>19330051920243</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051420227</v>
+        <v>19330051920243</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051420227</v>
+        <v>19330051920243</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051420227</v>
+        <v>19330051920243</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
         <v>52</v>
@@ -4746,39 +4740,39 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051420227</v>
+        <v>19330051920244</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920404</v>
+        <v>19330051920244</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
         <v>50</v>
@@ -4786,39 +4780,39 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920404</v>
+        <v>19330051920244</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920404</v>
+        <v>19330051920244</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
         <v>49</v>
@@ -4826,99 +4820,99 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920404</v>
+        <v>19330051920244</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920240</v>
+        <v>19330051920245</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920240</v>
+        <v>19330051920245</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920240</v>
+        <v>19330051920425</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920240</v>
+        <v>19330051920425</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
         <v>49</v>
@@ -4926,722 +4920,82 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920239</v>
+        <v>19330051920425</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920239</v>
+        <v>19330051920425</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920239</v>
+        <v>19330051920425</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920239</v>
+        <v>19330051920425</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920241</v>
-      </c>
-      <c r="B97" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" t="s">
-        <v>127</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920241</v>
-      </c>
-      <c r="B98" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920241</v>
-      </c>
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920241</v>
-      </c>
-      <c r="B100" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920241</v>
-      </c>
-      <c r="B101" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" t="s">
-        <v>101</v>
-      </c>
-      <c r="D101" t="s">
-        <v>127</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920241</v>
-      </c>
-      <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" t="s">
-        <v>127</v>
-      </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920242</v>
-      </c>
-      <c r="B103" t="s">
-        <v>82</v>
-      </c>
-      <c r="C103" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" t="s">
-        <v>128</v>
-      </c>
-      <c r="E103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920242</v>
-      </c>
-      <c r="B104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" t="s">
-        <v>71</v>
-      </c>
-      <c r="D104" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920242</v>
-      </c>
-      <c r="B105" t="s">
-        <v>82</v>
-      </c>
-      <c r="C105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920242</v>
-      </c>
-      <c r="B106" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" t="s">
-        <v>71</v>
-      </c>
-      <c r="D106" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920243</v>
-      </c>
-      <c r="B107" t="s">
-        <v>83</v>
-      </c>
-      <c r="C107" t="s">
-        <v>102</v>
-      </c>
-      <c r="D107" t="s">
-        <v>129</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920243</v>
-      </c>
-      <c r="B108" t="s">
-        <v>83</v>
-      </c>
-      <c r="C108" t="s">
-        <v>102</v>
-      </c>
-      <c r="D108" t="s">
-        <v>129</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920243</v>
-      </c>
-      <c r="B109" t="s">
-        <v>83</v>
-      </c>
-      <c r="C109" t="s">
-        <v>102</v>
-      </c>
-      <c r="D109" t="s">
-        <v>129</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920243</v>
-      </c>
-      <c r="B110" t="s">
-        <v>83</v>
-      </c>
-      <c r="C110" t="s">
-        <v>102</v>
-      </c>
-      <c r="D110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920243</v>
-      </c>
-      <c r="B111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C111" t="s">
-        <v>102</v>
-      </c>
-      <c r="D111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920243</v>
-      </c>
-      <c r="B112" t="s">
-        <v>83</v>
-      </c>
-      <c r="C112" t="s">
-        <v>102</v>
-      </c>
-      <c r="D112" t="s">
-        <v>129</v>
-      </c>
-      <c r="E112" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920244</v>
-      </c>
-      <c r="B113" t="s">
-        <v>84</v>
-      </c>
-      <c r="C113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" t="s">
-        <v>130</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920244</v>
-      </c>
-      <c r="B114" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" t="s">
-        <v>71</v>
-      </c>
-      <c r="D114" t="s">
-        <v>130</v>
-      </c>
-      <c r="E114" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920244</v>
-      </c>
-      <c r="B115" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" t="s">
-        <v>71</v>
-      </c>
-      <c r="D115" t="s">
-        <v>130</v>
-      </c>
-      <c r="E115" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920244</v>
-      </c>
-      <c r="B116" t="s">
-        <v>84</v>
-      </c>
-      <c r="C116" t="s">
-        <v>71</v>
-      </c>
-      <c r="D116" t="s">
-        <v>130</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920244</v>
-      </c>
-      <c r="B117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C117" t="s">
-        <v>71</v>
-      </c>
-      <c r="D117" t="s">
-        <v>130</v>
-      </c>
-      <c r="E117" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920244</v>
-      </c>
-      <c r="B118" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" t="s">
-        <v>71</v>
-      </c>
-      <c r="D118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920245</v>
-      </c>
-      <c r="B119" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" t="s">
-        <v>103</v>
-      </c>
-      <c r="D119" t="s">
-        <v>131</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920245</v>
-      </c>
-      <c r="B120" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" t="s">
-        <v>103</v>
-      </c>
-      <c r="D120" t="s">
-        <v>131</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920245</v>
-      </c>
-      <c r="B121" t="s">
-        <v>85</v>
-      </c>
-      <c r="C121" t="s">
-        <v>103</v>
-      </c>
-      <c r="D121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920245</v>
-      </c>
-      <c r="B122" t="s">
-        <v>85</v>
-      </c>
-      <c r="C122" t="s">
-        <v>103</v>
-      </c>
-      <c r="D122" t="s">
-        <v>131</v>
-      </c>
-      <c r="E122" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920425</v>
-      </c>
-      <c r="B123" t="s">
-        <v>86</v>
-      </c>
-      <c r="C123" t="s">
-        <v>104</v>
-      </c>
-      <c r="D123" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920425</v>
-      </c>
-      <c r="B124" t="s">
-        <v>86</v>
-      </c>
-      <c r="C124" t="s">
-        <v>104</v>
-      </c>
-      <c r="D124" t="s">
-        <v>132</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920425</v>
-      </c>
-      <c r="B125" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" t="s">
-        <v>104</v>
-      </c>
-      <c r="D125" t="s">
-        <v>132</v>
-      </c>
-      <c r="E125" t="s">
-        <v>4</v>
-      </c>
-      <c r="F125" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920425</v>
-      </c>
-      <c r="B126" t="s">
-        <v>86</v>
-      </c>
-      <c r="C126" t="s">
-        <v>104</v>
-      </c>
-      <c r="D126" t="s">
-        <v>132</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920425</v>
-      </c>
-      <c r="B127" t="s">
-        <v>86</v>
-      </c>
-      <c r="C127" t="s">
-        <v>104</v>
-      </c>
-      <c r="D127" t="s">
-        <v>132</v>
-      </c>
-      <c r="E127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920425</v>
-      </c>
-      <c r="B128" t="s">
-        <v>86</v>
-      </c>
-      <c r="C128" t="s">
-        <v>104</v>
-      </c>
-      <c r="D128" t="s">
-        <v>132</v>
-      </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5680,53 +5034,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920224</v>
+        <v>19330051920238</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920238</v>
+        <v>19330051920241</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920241</v>
+        <v>19330051920243</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5743,381 +5097,381 @@
         <v>132</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920231</v>
+        <v>19330051920224</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920236</v>
+        <v>19330051920231</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920243</v>
+        <v>19330051920429</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920234</v>
+        <v>19330051920244</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920244</v>
+        <v>19330051920234</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920223</v>
+        <v>19330051920235</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920227</v>
+        <v>19330051920236</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920232</v>
+        <v>19330051920430</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920233</v>
+        <v>19330051920226</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920237</v>
+        <v>19330051920227</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920430</v>
+        <v>19330051920228</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920225</v>
+        <v>19330051920239</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920226</v>
+        <v>19330051920223</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920229</v>
+        <v>19330051920225</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920230</v>
+        <v>19330051920229</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920429</v>
+        <v>19330051920230</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920235</v>
+        <v>19330051920232</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920228</v>
+        <v>19330051920233</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051420227</v>
+        <v>19330051920237</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920404</v>
+        <v>19330051420227</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920240</v>
+        <v>19330051920404</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920239</v>
+        <v>19330051920240</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6134,7 +5488,7 @@
         <v>128</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6151,7 +5505,7 @@
         <v>131</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6161,7 +5515,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6191,7 +5545,513 @@
         <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920237</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920237</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051420227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051420227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920404</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920404</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920242</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920245</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4APM - Estadisticos 2020.xlsx
+++ b/grupos/4APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="133">
   <si>
     <t>Materia</t>
   </si>
@@ -167,10 +167,10 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
     <t>Medina Tolentino Elio</t>
-  </si>
-  <si>
-    <t>Avila Coronado Julieta</t>
   </si>
   <si>
     <t>Herrera Serrano Mayra Iliana</t>
@@ -927,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O4">
         <v>-1</v>
@@ -986,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>6</v>
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O5">
         <v>-1</v>
@@ -1131,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -1190,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -1199,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <v>-1</v>
@@ -1403,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -1471,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O12">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -2151,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O22">
         <v>-1</v>
@@ -2219,7 +2219,7 @@
         <v>7</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -2272,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <v>7</v>
@@ -2287,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O24">
         <v>-1</v>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O25">
         <v>-1</v>
@@ -2491,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O27">
         <v>-1</v>
@@ -2529,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>-1</v>
@@ -2695,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O30">
         <v>-1</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2857,13 +2857,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>60.71</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>28</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2883,22 +2883,25 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>17.86</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2912,25 +2915,25 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>53.57</v>
+        <v>60.71</v>
       </c>
       <c r="G4">
         <v>32.14</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>46.43</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2944,25 +2947,25 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>60.71</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="G5">
+        <v>32.14</v>
+      </c>
+      <c r="H5">
+        <v>7.3</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
         <v>35.71</v>
-      </c>
-      <c r="H5">
-        <v>7.4</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>39.29</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3068,7 +3071,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3115,24 +3118,24 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920223</v>
+        <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -3140,62 +3143,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920430</v>
+        <v>19330051920224</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920430</v>
+        <v>19330051920224</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920430</v>
+        <v>19330051920224</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3212,10 +3215,10 @@
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3232,27 +3235,27 @@
         <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920224</v>
+        <v>19330051920225</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -3260,119 +3263,119 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920224</v>
+        <v>19330051920226</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920224</v>
+        <v>19330051920227</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920225</v>
+        <v>19330051920227</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920225</v>
+        <v>19330051920227</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920226</v>
+        <v>19330051920229</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920226</v>
+        <v>19330051920230</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>49</v>
@@ -3380,39 +3383,39 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920226</v>
+        <v>19330051920231</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>50</v>
@@ -3420,79 +3423,79 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920229</v>
+        <v>19330051920231</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920229</v>
+        <v>19330051920232</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>
@@ -3500,39 +3503,39 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920230</v>
+        <v>19330051920232</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920230</v>
+        <v>19330051920233</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
@@ -3540,19 +3543,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920231</v>
+        <v>19330051920233</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>50</v>
@@ -3560,19 +3563,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920231</v>
+        <v>19330051920234</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -3580,19 +3583,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920231</v>
+        <v>19330051920234</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
@@ -3600,99 +3603,99 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920231</v>
+        <v>19330051920234</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920231</v>
+        <v>19330051920234</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920232</v>
+        <v>19330051920429</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920232</v>
+        <v>19330051920429</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920233</v>
+        <v>19330051920429</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
@@ -3700,19 +3703,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920233</v>
+        <v>19330051920429</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>50</v>
@@ -3720,59 +3723,59 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920234</v>
+        <v>19330051920429</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920234</v>
+        <v>19330051920235</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920234</v>
+        <v>19330051920235</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
         <v>51</v>
@@ -3780,36 +3783,36 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920234</v>
+        <v>19330051920235</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920429</v>
+        <v>19330051920235</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -3820,99 +3823,99 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920429</v>
+        <v>19330051920236</v>
       </c>
       <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920429</v>
+        <v>19330051920236</v>
       </c>
       <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920429</v>
+        <v>19330051920236</v>
       </c>
       <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920429</v>
+        <v>19330051920236</v>
       </c>
       <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
         <v>71</v>
       </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920235</v>
+        <v>19330051920237</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
@@ -3920,239 +3923,239 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920235</v>
+        <v>19330051920237</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920235</v>
+        <v>19330051920228</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920235</v>
+        <v>19330051920228</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920236</v>
+        <v>19330051920228</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920236</v>
+        <v>19330051920238</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920236</v>
+        <v>19330051920238</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920236</v>
+        <v>19330051920238</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920237</v>
+        <v>19330051920238</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920237</v>
+        <v>19330051920238</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920228</v>
+        <v>19330051920238</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920228</v>
+        <v>19330051420227</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920228</v>
+        <v>19330051920404</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
         <v>49</v>
@@ -4160,179 +4163,179 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920238</v>
+        <v>19330051920240</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920238</v>
+        <v>19330051920239</v>
       </c>
       <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
         <v>76</v>
       </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920238</v>
+        <v>19330051920241</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920238</v>
+        <v>19330051920241</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920238</v>
+        <v>19330051920241</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920238</v>
+        <v>19330051920241</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051420227</v>
+        <v>19330051920241</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051420227</v>
+        <v>19330051920241</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920404</v>
+        <v>19330051920242</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
         <v>49</v>
@@ -4340,39 +4343,39 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920404</v>
+        <v>19330051920243</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920240</v>
+        <v>19330051920243</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
         <v>49</v>
@@ -4380,19 +4383,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920240</v>
+        <v>19330051920243</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>50</v>
@@ -4400,179 +4403,179 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920239</v>
+        <v>19330051920243</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920239</v>
+        <v>19330051920243</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920239</v>
+        <v>19330051920243</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920241</v>
+        <v>19330051920244</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920241</v>
+        <v>19330051920244</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920241</v>
+        <v>19330051920244</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920241</v>
+        <v>19330051920244</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920241</v>
+        <v>19330051920244</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920241</v>
+        <v>19330051920245</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
         <v>49</v>
@@ -4580,39 +4583,39 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920242</v>
+        <v>19330051920425</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920242</v>
+        <v>19330051920425</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>50</v>
@@ -4620,59 +4623,59 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920243</v>
+        <v>19330051920425</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920243</v>
+        <v>19330051920425</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920243</v>
+        <v>19330051920425</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
         <v>51</v>
@@ -4680,322 +4683,22 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920243</v>
+        <v>19330051920425</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920243</v>
-      </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" t="s">
-        <v>129</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920243</v>
-      </c>
-      <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920244</v>
-      </c>
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920244</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" t="s">
-        <v>130</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920244</v>
-      </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920244</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920244</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920245</v>
-      </c>
-      <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920245</v>
-      </c>
-      <c r="B90" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920425</v>
-      </c>
-      <c r="B91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920425</v>
-      </c>
-      <c r="B92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920425</v>
-      </c>
-      <c r="B93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920425</v>
-      </c>
-      <c r="B94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920425</v>
-      </c>
-      <c r="B95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920425</v>
-      </c>
-      <c r="B96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" t="s">
-        <v>104</v>
-      </c>
-      <c r="D96" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5221,16 +4924,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920430</v>
+        <v>19330051920227</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -5238,16 +4941,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920226</v>
+        <v>19330051920228</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -5255,53 +4958,53 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920227</v>
+        <v>19330051920232</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920228</v>
+        <v>19330051920233</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920239</v>
+        <v>19330051920237</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5318,160 +5021,160 @@
         <v>105</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920225</v>
+        <v>19330051920430</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920229</v>
+        <v>19330051920225</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920230</v>
+        <v>19330051920226</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920232</v>
+        <v>19330051920229</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920233</v>
+        <v>19330051920230</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920237</v>
+        <v>19330051420227</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051420227</v>
+        <v>19330051920404</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920404</v>
+        <v>19330051920240</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920240</v>
+        <v>19330051920239</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5488,7 +5191,7 @@
         <v>128</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5505,7 +5208,7 @@
         <v>131</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5515,7 +5218,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5550,22 +5253,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920223</v>
+        <v>19330051920232</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5573,22 +5276,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920223</v>
+        <v>19330051920232</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5596,22 +5299,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920225</v>
+        <v>19330051920237</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5619,22 +5322,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920225</v>
+        <v>19330051920237</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5642,19 +5345,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920229</v>
+        <v>19330051920223</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -5665,22 +5368,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920229</v>
+        <v>19330051920430</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -5688,19 +5391,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920230</v>
+        <v>19330051920225</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -5711,22 +5414,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920230</v>
+        <v>19330051920226</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -5734,19 +5437,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920232</v>
+        <v>19330051920229</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -5757,22 +5460,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920232</v>
+        <v>19330051920230</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -5780,19 +5483,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920237</v>
+        <v>19330051420227</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
@@ -5803,22 +5506,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920237</v>
+        <v>19330051920404</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -5826,19 +5529,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051420227</v>
+        <v>19330051920240</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
@@ -5849,22 +5552,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051420227</v>
+        <v>19330051920239</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -5872,19 +5575,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920404</v>
+        <v>19330051920242</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -5895,162 +5598,24 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920404</v>
+        <v>19330051920245</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920240</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920240</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920242</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920242</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920245</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920245</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4APM - Estadisticos 2020.xlsx
+++ b/grupos/4APM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="133">
   <si>
     <t>Materia</t>
   </si>
@@ -167,12 +167,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
-    <t>Medina Tolentino Elio</t>
-  </si>
-  <si>
     <t>Herrera Serrano Mayra Iliana</t>
   </si>
   <si>
@@ -197,198 +197,210 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CHORA</t>
+  </si>
+  <si>
+    <t>GARIBAY</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERAS</t>
+  </si>
+  <si>
+    <t>LADINO</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CELICEO</t>
+  </si>
+  <si>
+    <t>CALPULALPAN</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MOISES URIEL</t>
+  </si>
+  <si>
+    <t>GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MARCOS URIEL</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>PAOLA</t>
+  </si>
+  <si>
+    <t>YARELY JACQUELINE</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>ZURISADAI</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>IRVING JAIR</t>
+  </si>
+  <si>
+    <t>DANTE GAMALIEL</t>
+  </si>
+  <si>
+    <t>ABDIEL ANTONIO</t>
+  </si>
+  <si>
+    <t>DANIELA JAQUELINE</t>
+  </si>
+  <si>
+    <t>URIEL ALFREDO</t>
+  </si>
+  <si>
     <t>ALEJO</t>
   </si>
   <si>
     <t>CARDENAS</t>
   </si>
   <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
     <t>CESPEDES</t>
   </si>
   <si>
     <t>CHIPAHUA</t>
   </si>
   <si>
-    <t>CHORA</t>
-  </si>
-  <si>
     <t>DIAZ</t>
   </si>
   <si>
     <t>ESTRADA</t>
   </si>
   <si>
-    <t>GARIBAY</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERAS</t>
-  </si>
-  <si>
-    <t>LADINO</t>
-  </si>
-  <si>
-    <t>LICEA</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
     <t>REYNOSO</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
     <t>RICO</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>ZUNO</t>
-  </si>
-  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
     <t>RAMOS</t>
   </si>
   <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
     <t>CRUZ</t>
   </si>
   <si>
     <t>PANZO</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>CASTAÑEDA</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CELICEO</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
     <t>ANDRADE</t>
   </si>
   <si>
     <t>ALCARAZ</t>
   </si>
   <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
     <t>LLAVE</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>RAUL ALEJANDRO</t>
   </si>
   <si>
     <t>JOSE LUIS</t>
   </si>
   <si>
-    <t>MOISES URIEL</t>
-  </si>
-  <si>
     <t>ERICK MANUEL</t>
   </si>
   <si>
     <t>KARLA FABIOLA</t>
   </si>
   <si>
-    <t>GABRIEL ALEJANDRO</t>
-  </si>
-  <si>
     <t>IRVING YAHIR</t>
   </si>
   <si>
     <t>BRAULIO VADIR</t>
   </si>
   <si>
-    <t>MARCOS URIEL</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>PAOLA</t>
-  </si>
-  <si>
-    <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>CESAR ENRIQUE</t>
-  </si>
-  <si>
-    <t>ZURISADAI</t>
-  </si>
-  <si>
-    <t>QADMIEL TAMARA</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>IRVING JAIR</t>
-  </si>
-  <si>
     <t>ALEXANDER</t>
   </si>
   <si>
@@ -401,22 +413,10 @@
     <t>NADYA GUADALUPE</t>
   </si>
   <si>
-    <t>DANTE GAMALIEL</t>
-  </si>
-  <si>
     <t>ANGEL EDUARDO</t>
   </si>
   <si>
-    <t>ABDIEL ANTONIO</t>
-  </si>
-  <si>
-    <t>DANIELA JAQUELINE</t>
-  </si>
-  <si>
     <t>YESUA ISIDRO</t>
-  </si>
-  <si>
-    <t>URIEL ALFREDO</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -998,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1066,7 +1066,7 @@
         <v>-1</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1202,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1270,7 +1270,7 @@
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1338,7 +1338,7 @@
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1406,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1474,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1542,7 +1542,7 @@
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1610,7 +1610,7 @@
         <v>-1</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>-1</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1746,7 +1746,7 @@
         <v>-1</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1814,7 +1814,7 @@
         <v>-1</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1882,7 +1882,7 @@
         <v>-1</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -1950,7 +1950,7 @@
         <v>-1</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2018,7 +2018,7 @@
         <v>-1</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2086,7 +2086,7 @@
         <v>-1</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2154,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2290,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2358,7 +2358,7 @@
         <v>10</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2426,7 +2426,7 @@
         <v>-1</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2494,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2562,7 +2562,7 @@
         <v>-1</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2630,7 +2630,7 @@
         <v>-1</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2698,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2766,7 +2766,7 @@
         <v>-1</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -2854,27 +2854,30 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>17.86</v>
+      </c>
+      <c r="H2">
+        <v>7.1</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2883,25 +2886,25 @@
         <v>28</v>
       </c>
       <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
       <c r="F3">
+        <v>57.14</v>
+      </c>
+      <c r="G3">
         <v>42.86</v>
       </c>
-      <c r="G3">
-        <v>17.86</v>
-      </c>
       <c r="H3">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>57.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3071,7 +3074,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3103,42 +3106,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920223</v>
+        <v>19330051920224</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920430</v>
+        <v>19330051920224</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3146,19 +3149,19 @@
         <v>19330051920224</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3166,116 +3169,116 @@
         <v>19330051920224</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920224</v>
+        <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920224</v>
+        <v>19330051920227</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920224</v>
+        <v>19330051920231</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
       <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920225</v>
+        <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920226</v>
+        <v>19330051920231</v>
       </c>
       <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -3283,119 +3286,119 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920227</v>
+        <v>19330051920231</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920227</v>
+        <v>19330051920232</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920227</v>
+        <v>19330051920233</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920229</v>
+        <v>19330051920234</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920230</v>
+        <v>19330051920234</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920231</v>
+        <v>19330051920234</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -3403,79 +3406,79 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920231</v>
+        <v>19330051920429</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920231</v>
+        <v>19330051920429</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920231</v>
+        <v>19330051920429</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920231</v>
+        <v>19330051920429</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>51</v>
@@ -3483,116 +3486,116 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920232</v>
+        <v>19330051920235</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
         <v>94</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920232</v>
+        <v>19330051920235</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920233</v>
+        <v>19330051920235</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920233</v>
+        <v>19330051920236</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920234</v>
+        <v>19330051920236</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920234</v>
+        <v>19330051920236</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -3603,79 +3606,79 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920234</v>
+        <v>19330051920237</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
         <v>96</v>
       </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920234</v>
+        <v>19330051920228</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920429</v>
+        <v>19330051920228</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920429</v>
+        <v>19330051920238</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
         <v>51</v>
@@ -3683,19 +3686,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920429</v>
+        <v>19330051920238</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
@@ -3703,39 +3706,39 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920429</v>
+        <v>19330051920238</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920429</v>
+        <v>19330051920238</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
@@ -3743,79 +3746,79 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920235</v>
+        <v>19330051920238</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920235</v>
+        <v>19330051920241</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920235</v>
+        <v>19330051920241</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920235</v>
+        <v>19330051920241</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
         <v>51</v>
@@ -3823,136 +3826,136 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920236</v>
+        <v>19330051920241</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920236</v>
+        <v>19330051920241</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920236</v>
+        <v>19330051920243</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920236</v>
+        <v>19330051920243</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920237</v>
+        <v>19330051920243</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920237</v>
+        <v>19330051920243</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920228</v>
+        <v>19330051920243</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -3963,742 +3966,182 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920228</v>
+        <v>19330051920244</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920228</v>
+        <v>19330051920244</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920238</v>
+        <v>19330051920244</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920238</v>
+        <v>19330051920244</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920238</v>
+        <v>19330051920425</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920238</v>
+        <v>19330051920425</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920238</v>
+        <v>19330051920425</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920238</v>
+        <v>19330051920425</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051420227</v>
+        <v>19330051920425</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920404</v>
-      </c>
-      <c r="B54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920240</v>
-      </c>
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920239</v>
-      </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920241</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920241</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920241</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920241</v>
-      </c>
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920241</v>
-      </c>
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920241</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920242</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920243</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920243</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920243</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920243</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920243</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920243</v>
-      </c>
-      <c r="B69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920244</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920244</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920244</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>130</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920244</v>
-      </c>
-      <c r="B73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920244</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920245</v>
-      </c>
-      <c r="B75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920425</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920425</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920425</v>
-      </c>
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920425</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920425</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920425</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4740,16 +4183,16 @@
         <v>19330051920238</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4757,16 +4200,16 @@
         <v>19330051920241</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4774,16 +4217,16 @@
         <v>19330051920243</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4791,16 +4234,16 @@
         <v>19330051920425</v>
       </c>
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4808,16 +4251,16 @@
         <v>19330051920224</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4825,16 +4268,16 @@
         <v>19330051920231</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4842,16 +4285,16 @@
         <v>19330051920429</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4859,16 +4302,16 @@
         <v>19330051920244</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4876,16 +4319,16 @@
         <v>19330051920234</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4893,16 +4336,16 @@
         <v>19330051920235</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4910,16 +4353,16 @@
         <v>19330051920236</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4927,16 +4370,16 @@
         <v>19330051920227</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4944,16 +4387,16 @@
         <v>19330051920228</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4961,16 +4404,16 @@
         <v>19330051920232</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4978,16 +4421,16 @@
         <v>19330051920233</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4995,16 +4438,16 @@
         <v>19330051920237</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5012,16 +4455,16 @@
         <v>19330051920223</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5029,16 +4472,16 @@
         <v>19330051920430</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5046,16 +4489,16 @@
         <v>19330051920225</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5063,16 +4506,16 @@
         <v>19330051920226</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5080,16 +4523,16 @@
         <v>19330051920229</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5097,16 +4540,16 @@
         <v>19330051920230</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5114,16 +4557,16 @@
         <v>19330051420227</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5131,16 +4574,16 @@
         <v>19330051920404</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5148,16 +4591,16 @@
         <v>19330051920240</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5165,16 +4608,16 @@
         <v>19330051920239</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5182,16 +4625,16 @@
         <v>19330051920242</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5199,16 +4642,16 @@
         <v>19330051920245</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5218,7 +4661,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5253,22 +4696,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920232</v>
+        <v>19330051920227</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5276,19 +4719,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920232</v>
+        <v>19330051920227</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -5302,19 +4745,19 @@
         <v>19330051920237</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5325,297 +4768,44 @@
         <v>19330051920237</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920223</v>
+        <v>19330051920232</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
       <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920430</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920226</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920230</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051420227</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920404</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920240</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920239</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920242</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920245</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4APM - Estadisticos 2020.xlsx
+++ b/grupos/4APM - Estadisticos 2020.xlsx
@@ -3118,10 +3118,10 @@
         <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3138,7 +3138,7 @@
         <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
@@ -3158,10 +3158,10 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3178,10 +3178,10 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
